--- a/biology/Biologie cellulaire et moléculaire/Caryomastigonte/Caryomastigonte.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Caryomastigonte/Caryomastigonte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biologie, un caryomastigonte est un ensemble constitué d'un noyau entouré d'un système microtubulaire à disposition particulière et associé à deux paires de flagelles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biologie, un caryomastigonte est un ensemble constitué d'un noyau entouré d'un système microtubulaire à disposition particulière et associé à deux paires de flagelles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot Caryomastigonte vient du grec ancien μαστίγ / mastig- ou μαστίγιο / mastígios qui signifie fouet, flagelle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot Caryomastigonte vient du grec ancien μαστίγ / mastig- ou μαστίγιο / mastígios qui signifie fouet, flagelle.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Le caryomastigonte dans l'hypothèse de l'origine du noyau et de la mitose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'hypothèse de la microbiologiste Lynn Margulis, l'apparition du noyau et de la mitose (et donc des structures qui lui sont liées) se sont réalisées en même temps au Protérozoïque, période qui s'étend d'il y a 2500 à 541 millions d'années[2].
-La façon dont le centrosome (le système organisateur des microtubules) a émergé a longtemps posé question. Il est désormais envisagé que la symbiose de deux bactéries menant au Dernier Ancêtre Eucaryote Commun (en anglais : LECA pour last eukaryotic common ancestor) pourrait être la réponse  cette question et, dans cette hypothèse, le caryomastigonte a donc un statut particulier : c'est ce système qui marque véritablement la naissance des eucaryotes, de « l'individualité complexe » de ces dernières[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'hypothèse de la microbiologiste Lynn Margulis, l'apparition du noyau et de la mitose (et donc des structures qui lui sont liées) se sont réalisées en même temps au Protérozoïque, période qui s'étend d'il y a 2500 à 541 millions d'années.
+La façon dont le centrosome (le système organisateur des microtubules) a émergé a longtemps posé question. Il est désormais envisagé que la symbiose de deux bactéries menant au Dernier Ancêtre Eucaryote Commun (en anglais : LECA pour last eukaryotic common ancestor) pourrait être la réponse  cette question et, dans cette hypothèse, le caryomastigonte a donc un statut particulier : c'est ce système qui marque véritablement la naissance des eucaryotes, de « l'individualité complexe » de ces dernières.
 </t>
         </is>
       </c>
